--- a/src/Source/rl_meta_test_data_25_customer.xlsx
+++ b/src/Source/rl_meta_test_data_25_customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rl-meta-test\src\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D294A4D1-70D5-4037-80A4-877E37D061F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C46BC4-0A15-4BC9-A96D-A9F876AADCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9B310FD-0121-4B7A-9F32-BEC8B9F17358}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9B310FD-0121-4B7A-9F32-BEC8B9F17358}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="1" r:id="rId1"/>
@@ -453,13 +453,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111E75C9-5452-4110-97AF-919087E1C81A}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="A1:Z27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>18.681541692269398</v>
       </c>
@@ -616,7 +616,7 @@
         <v>15.1327459504215</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18.681541692269398</v>
       </c>
@@ -693,7 +693,7 @@
         <v>25.612496949731302</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20.6155281280883</v>
       </c>
@@ -770,7 +770,7 @@
         <v>26.907248094147398</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16.124515496597098</v>
       </c>
@@ -847,7 +847,7 @@
         <v>22.0227155455452</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18.110770276274799</v>
       </c>
@@ -924,7 +924,7 @@
         <v>23.345235059857501</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15.1327459504215</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>21.400934559032599</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>22.671568097509201</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>20.5182845286831</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18.110770276274799</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>20.6155281280883</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20.099751242241702</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>22.203603311174501</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16.7630546142402</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>17.2046505340852</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19.646882704388499</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>19.723082923315999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38.078865529319501</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30.805843601498701</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>23.194827009486399</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>39.3573373083088</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>33.136083051561698</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>36.0555127546398</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>28.442925306655699</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>40.311288741492703</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>33.376638536557202</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>33.301651610693398</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>24.0416305603426</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35.355339059327299</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>25.079872407968899</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>39.051248379533199</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>29.732137494637001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>5.3851648071345002</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10.1980390271855</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12.1655250605964</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15.1327459504215</v>
       </c>
@@ -2550,13 +2550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FC4949-3E22-4716-B689-0C633FC300CE}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3352,9 +3352,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
